--- a/data/trans_orig/P14A29-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A29-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E17609-352E-466E-8FC9-948AFD18872F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FCA0372-4E6F-4D22-8B93-645904298161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBE05141-48A3-47F0-B730-589D85A828FB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5EC6782F-1235-447E-8A77-7121C726904C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="119">
   <si>
     <t>Población que recibe medicación o terapia por osteoporosis en 2012 (Tasa respuesta: 2,07%)</t>
   </si>
@@ -84,19 +84,19 @@
     <t>86,74%</t>
   </si>
   <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -114,19 +114,19 @@
     <t>13,26%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
   </si>
   <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -138,13 +138,13 @@
     <t>88,06%</t>
   </si>
   <si>
-    <t>62,5%</t>
+    <t>62,98%</t>
   </si>
   <si>
     <t>89,37%</t>
   </si>
   <si>
-    <t>64,69%</t>
+    <t>66,59%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -153,13 +153,13 @@
     <t>11,94%</t>
   </si>
   <si>
-    <t>37,5%</t>
+    <t>37,02%</t>
   </si>
   <si>
     <t>10,63%</t>
   </si>
   <si>
-    <t>35,31%</t>
+    <t>33,41%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -171,61 +171,61 @@
     <t>88,29%</t>
   </si>
   <si>
-    <t>46,45%</t>
+    <t>42,45%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>53,55%</t>
+    <t>57,55%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>10,44%</t>
+    <t>9,98%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>89,56%</t>
+    <t>90,02%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -243,19 +243,19 @@
     <t>81,54%</t>
   </si>
   <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
   <si>
     <t>81,65%</t>
   </si>
   <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>16,77%</t>
@@ -267,19 +267,19 @@
     <t>18,46%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -288,19 +288,19 @@
     <t>79,57%</t>
   </si>
   <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>81,57%</t>
   </si>
   <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -309,85 +309,91 @@
     <t>20,43%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
   </si>
   <si>
     <t>89,57%</t>
   </si>
   <si>
-    <t>55,26%</t>
+    <t>49,28%</t>
   </si>
   <si>
     <t>91,4%</t>
   </si>
   <si>
-    <t>63,43%</t>
+    <t>62,82%</t>
   </si>
   <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>44,74%</t>
+    <t>50,72%</t>
   </si>
   <si>
     <t>8,6%</t>
   </si>
   <si>
-    <t>36,57%</t>
+    <t>37,18%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>62,87%</t>
+    <t>65,76%</t>
   </si>
   <si>
     <t>81,5%</t>
   </si>
   <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>74,84%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>37,13%</t>
+    <t>34,24%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>25,16%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
 </sst>
 </file>
@@ -799,7 +805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D1A29F-7E82-46E6-8ED4-F2228809F159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC7EC86-AFC3-4A44-8EA9-06BF93CCC38C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1544,7 +1550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B981AFDC-3F4F-4AFA-BF3D-74B9EE07FE18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB60CE3D-3A04-454C-BA14-9D34D39D6EFA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2169,7 +2175,7 @@
         <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,13 +2190,13 @@
         <v>802</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -2199,13 +2205,13 @@
         <v>22598</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -2214,13 +2220,13 @@
         <v>23400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A29-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A29-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FCA0372-4E6F-4D22-8B93-645904298161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7345E551-9B05-4C71-8C5F-C083EB6A4E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5EC6782F-1235-447E-8A77-7121C726904C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C1F01F63-DD6D-4C22-9314-D44752BCC560}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,19 +84,19 @@
     <t>86,74%</t>
   </si>
   <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
   </si>
   <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>No</t>
@@ -114,19 +114,19 @@
     <t>13,26%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -138,13 +138,13 @@
     <t>88,06%</t>
   </si>
   <si>
-    <t>62,98%</t>
+    <t>59,13%</t>
   </si>
   <si>
     <t>89,37%</t>
   </si>
   <si>
-    <t>66,59%</t>
+    <t>67,13%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -153,13 +153,13 @@
     <t>11,94%</t>
   </si>
   <si>
-    <t>37,02%</t>
+    <t>40,87%</t>
   </si>
   <si>
     <t>10,63%</t>
   </si>
   <si>
-    <t>33,41%</t>
+    <t>32,87%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -171,115 +171,115 @@
     <t>88,29%</t>
   </si>
   <si>
-    <t>42,45%</t>
+    <t>45,92%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>57,55%</t>
+    <t>54,08%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>9,98%</t>
+    <t>10,49%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>90,02%</t>
+    <t>89,51%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por osteoporosis en 2015 (Tasa respuesta: 1,8%)</t>
+    <t>Población que recibe medicación o terapia por osteoporosis en 2016 (Tasa respuesta: 1,8%)</t>
   </si>
   <si>
     <t>83,23%</t>
   </si>
   <si>
-    <t>22,14%</t>
+    <t>21,42%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>81,65%</t>
   </si>
   <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>77,86%</t>
+    <t>78,58%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -288,16 +288,16 @@
     <t>79,57%</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>81,57%</t>
   </si>
   <si>
-    <t>67,26%</t>
+    <t>66,54%</t>
   </si>
   <si>
     <t>91,28%</t>
@@ -309,10 +309,10 @@
     <t>20,43%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
   </si>
   <si>
     <t>18,43%</t>
@@ -321,79 +321,79 @@
     <t>8,72%</t>
   </si>
   <si>
-    <t>32,74%</t>
+    <t>33,46%</t>
   </si>
   <si>
     <t>89,57%</t>
   </si>
   <si>
-    <t>49,28%</t>
+    <t>54,78%</t>
   </si>
   <si>
     <t>91,4%</t>
   </si>
   <si>
-    <t>62,82%</t>
+    <t>63,17%</t>
   </si>
   <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>50,72%</t>
+    <t>45,22%</t>
   </si>
   <si>
     <t>8,6%</t>
   </si>
   <si>
-    <t>37,18%</t>
+    <t>36,83%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>65,76%</t>
+    <t>62,41%</t>
   </si>
   <si>
     <t>81,5%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>34,24%</t>
+    <t>37,59%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
 </sst>
 </file>
@@ -805,7 +805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC7EC86-AFC3-4A44-8EA9-06BF93CCC38C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341F8100-A946-4C13-B762-16435AC43E8A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1550,7 +1550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB60CE3D-3A04-454C-BA14-9D34D39D6EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F31E47-86C2-4CE4-84E8-3EAE1E1D37AA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
